--- a/study02/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
+++ b/study02/report/correlation/effective-participants/SimpleCorrPairAnalysis-moderate.xlsx
@@ -6,17 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="moderate_spearman_9" r:id="rId3" sheetId="1"/>
-    <sheet name="moderate_spearman_27" r:id="rId4" sheetId="2"/>
-    <sheet name="moderate_spearman_36" r:id="rId5" sheetId="3"/>
+    <sheet name="moderate_spearman_7" r:id="rId3" sheetId="1"/>
+    <sheet name="moderate_spearman_16" r:id="rId4" sheetId="2"/>
+    <sheet name="moderate_spearman_18" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="39">
-  <si>
-    <t>Correlation information for DiffTheta - Level of Motivation in ont-gamified.Master using the method: spearman</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="47">
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Level of Motivation in non-gamified.Master using the method: spearman</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -25,7 +25,7 @@
     <t>Correlation matrix</t>
   </si>
   <si>
-    <t>DiffTheta</t>
+    <t>Gains in Skill/Knowledge</t>
   </si>
   <si>
     <t>Level of Motivation</t>
@@ -52,13 +52,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>DffTh-LvloM</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Level of Motivation in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Level of Motivation in ont-gamified.Master</t>
+    <t>GiS/K-LvloM</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Level of Motivation in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Level of Motivation in non-gamified.Master</t>
   </si>
   <si>
     <t>UserID</t>
@@ -79,6 +79,63 @@
     <t>PlayerRole</t>
   </si>
   <si>
+    <t>non-gamified</t>
+  </si>
+  <si>
+    <t>Grupo Team 6</t>
+  </si>
+  <si>
+    <t>Grupo Team 7</t>
+  </si>
+  <si>
+    <t>Grupo Team 11</t>
+  </si>
+  <si>
+    <t>Grupo Team 10</t>
+  </si>
+  <si>
+    <t>Grupo Team 5</t>
+  </si>
+  <si>
+    <t>Grupo Team 9</t>
+  </si>
+  <si>
+    <t>Grupo Team 8</t>
+  </si>
+  <si>
+    <t>Grupo Team 4</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in non-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>GiS/K-Attnt</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Attention in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in non-gamified.Master</t>
+  </si>
+  <si>
+    <t>Correlation information for Gains in Skill/Knowledge - Attention in ont-gamified.Master using the method: spearman</t>
+  </si>
+  <si>
+    <t>Data source for Gains in Skill/Knowledge - Attention in ont-gamified.Master</t>
+  </si>
+  <si>
+    <t>Data full source for Gains in Skill/Knowledge - Attention in ont-gamified.Master</t>
+  </si>
+  <si>
     <t>ont-gamified</t>
   </si>
   <si>
@@ -94,43 +151,10 @@
     <t>Grupo Belos</t>
   </si>
   <si>
-    <t>Master</t>
-  </si>
-  <si>
     <t>Yee Achiever</t>
   </si>
   <si>
     <t>Yee Socializer</t>
-  </si>
-  <si>
-    <t>Correlation information for DiffTheta - Relevance in ont-gamified.Master using the method: spearman</t>
-  </si>
-  <si>
-    <t>Relevance</t>
-  </si>
-  <si>
-    <t>DffTh-Rlvnc</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Relevance in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Relevance in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Correlation information for DiffTheta - Satisfaction in ont-gamified.Master using the method: spearman</t>
-  </si>
-  <si>
-    <t>Satisfaction</t>
-  </si>
-  <si>
-    <t>DffTh-Stsfc</t>
-  </si>
-  <si>
-    <t>Data source for DiffTheta - Satisfaction in ont-gamified.Master</t>
-  </si>
-  <si>
-    <t>Data full source for DiffTheta - Satisfaction in ont-gamified.Master</t>
   </si>
 </sst>
 </file>
@@ -2162,7 +2186,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="32">
-        <v>-0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -2170,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="31">
-        <v>-0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="C7" t="n" s="32">
         <v>1.0</v>
@@ -2208,7 +2232,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="52">
-        <v>-1.0606601717798216</v>
+        <v>1.4142135623730954</v>
       </c>
     </row>
     <row r="13">
@@ -2216,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n" s="51">
-        <v>-1.0606601717798216</v>
+        <v>1.4142135623730954</v>
       </c>
       <c r="C13" t="e" s="52">
         <v>#DIV/0!</v>
@@ -2254,7 +2278,7 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="72">
-        <v>0.3999999999999999</v>
+        <v>0.20703124999999997</v>
       </c>
     </row>
     <row r="19">
@@ -2262,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n" s="71">
-        <v>0.3999999999999999</v>
+        <v>0.20703124999999997</v>
       </c>
       <c r="C19" t="n" s="72">
         <v>-0.0</v>
@@ -2303,16 +2327,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="n" s="91">
-        <v>-0.9901277107996943</v>
+        <v>-0.31601737187318035</v>
       </c>
       <c r="C24" t="n" s="92">
-        <v>-0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="D24" t="n" s="93">
-        <v>0.852932564694718</v>
+        <v>0.8908085822654894</v>
       </c>
       <c r="E24" t="n" s="94">
-        <v>0.3999999999999999</v>
+        <v>0.20703124999999997</v>
       </c>
     </row>
     <row r="25">
@@ -2340,179 +2364,315 @@
     </row>
     <row r="29">
       <c r="A29" t="n" s="113">
-        <v>0.14688963924618592</v>
+        <v>0.10936128804170442</v>
       </c>
       <c r="B29" t="n" s="114">
-        <v>-0.12952152339410455</v>
+        <v>1.3188222249958153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="113">
-        <v>-0.382909871149995</v>
+        <v>0.020923419414545792</v>
       </c>
       <c r="B30" t="n" s="114">
-        <v>0.07080596883822704</v>
+        <v>0.8699716534529528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="113">
-        <v>-0.08233388109376125</v>
+        <v>-0.0384477872777069</v>
       </c>
       <c r="B31" t="n" s="114">
-        <v>-0.46307375086820896</v>
+        <v>0.16436034600850633</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="113">
-        <v>-0.3651781225582364</v>
+        <v>0.03479485469110267</v>
       </c>
       <c r="B32" t="n" s="114">
-        <v>0.4397719820919573</v>
+        <v>0.6695177391413124</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="n" s="113">
+        <v>-0.014255977234340904</v>
+      </c>
+      <c r="B33" t="n" s="114">
+        <v>1.6373083794094072</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="113">
+        <v>-0.06206997155468905</v>
+      </c>
+      <c r="B34" t="n" s="114">
+        <v>0.04310669682721947</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="113">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="B35" t="n" s="114">
+        <v>0.3501518732623377</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="113">
+        <v>0.01579947135183563</v>
+      </c>
+      <c r="B36" t="n" s="114">
+        <v>-0.5751917581635956</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="38">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="118">
+    <row r="39">
+      <c r="A39" t="s" s="118">
         <v>14</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="132">
+    <row r="40">
+      <c r="A40" t="s" s="132">
         <v>15</v>
       </c>
-      <c r="B36" t="s" s="132">
+      <c r="B40" t="s" s="132">
         <v>16</v>
       </c>
-      <c r="C36" t="s" s="132">
+      <c r="C40" t="s" s="132">
         <v>17</v>
       </c>
-      <c r="D36" t="s" s="132">
+      <c r="D40" t="s" s="132">
         <v>18</v>
       </c>
-      <c r="E36" t="s" s="132">
+      <c r="E40" t="s" s="132">
         <v>19</v>
       </c>
-      <c r="F36" t="s" s="132">
+      <c r="F40" t="s" s="132">
         <v>20</v>
       </c>
-      <c r="G36" t="s" s="132">
+      <c r="G40" t="s" s="132">
         <v>3</v>
       </c>
-      <c r="H36" t="s" s="132">
+      <c r="H40" t="s" s="132">
         <v>4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n" s="133">
-        <v>10185.0</v>
-      </c>
-      <c r="B37" t="n" s="134">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C37" t="s" s="135">
+    <row r="41">
+      <c r="A41" t="n" s="133">
+        <v>10175.0</v>
+      </c>
+      <c r="B41" t="n" s="134">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C41" t="s" s="135">
         <v>21</v>
       </c>
-      <c r="D37" t="s" s="136">
+      <c r="D41" t="s" s="136">
         <v>22</v>
       </c>
-      <c r="E37" t="s" s="137">
+      <c r="E41" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F41" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="139">
+        <v>0.10936128804170442</v>
+      </c>
+      <c r="H41" t="n" s="140">
+        <v>1.3188222249958153</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="133">
+        <v>10184.0</v>
+      </c>
+      <c r="B42" t="n" s="134">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C42" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s" s="136">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="139">
+        <v>0.020923419414545792</v>
+      </c>
+      <c r="H42" t="n" s="140">
+        <v>0.8699716534529528</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="133">
+        <v>10197.0</v>
+      </c>
+      <c r="B43" t="n" s="134">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C43" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="136">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="139">
+        <v>-0.0384477872777069</v>
+      </c>
+      <c r="H43" t="n" s="140">
+        <v>0.16436034600850633</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="133">
+        <v>10201.0</v>
+      </c>
+      <c r="B44" t="n" s="134">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C44" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="136">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="139">
+        <v>0.03479485469110267</v>
+      </c>
+      <c r="H44" t="n" s="140">
+        <v>0.6695177391413124</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="133">
+        <v>10204.0</v>
+      </c>
+      <c r="B45" t="n" s="134">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C45" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="136">
         <v>26</v>
       </c>
-      <c r="F37" t="s" s="138">
+      <c r="E45" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n" s="139">
+        <v>-0.014255977234340904</v>
+      </c>
+      <c r="H45" t="n" s="140">
+        <v>1.6373083794094072</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="133">
+        <v>10206.0</v>
+      </c>
+      <c r="B46" t="n" s="134">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C46" t="s" s="135">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="136">
         <v>27</v>
       </c>
-      <c r="G37" t="n" s="139">
-        <v>0.14688963924618592</v>
-      </c>
-      <c r="H37" t="n" s="140">
-        <v>-0.12952152339410455</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="133">
-        <v>10188.0</v>
-      </c>
-      <c r="B38" t="n" s="134">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C38" t="s" s="135">
+      <c r="E46" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="139">
+        <v>-0.06206997155468905</v>
+      </c>
+      <c r="H46" t="n" s="140">
+        <v>0.04310669682721947</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="133">
+        <v>10213.0</v>
+      </c>
+      <c r="B47" t="n" s="134">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C47" t="s" s="135">
         <v>21</v>
       </c>
-      <c r="D38" t="s" s="136">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s" s="137">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s" s="138">
-        <v>27</v>
-      </c>
-      <c r="G38" t="n" s="139">
-        <v>-0.382909871149995</v>
-      </c>
-      <c r="H38" t="n" s="140">
-        <v>0.07080596883822704</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="133">
-        <v>10208.0</v>
-      </c>
-      <c r="B39" t="n" s="134">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C39" t="s" s="135">
+      <c r="D47" t="s" s="136">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G47" t="n" s="139">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="H47" t="n" s="140">
+        <v>0.3501518732623377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="133">
+        <v>10231.0</v>
+      </c>
+      <c r="B48" t="n" s="134">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C48" t="s" s="135">
         <v>21</v>
       </c>
-      <c r="D39" t="s" s="136">
-        <v>24</v>
-      </c>
-      <c r="E39" t="s" s="137">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s" s="138">
-        <v>28</v>
-      </c>
-      <c r="G39" t="n" s="139">
-        <v>-0.08233388109376125</v>
-      </c>
-      <c r="H39" t="n" s="140">
-        <v>-0.46307375086820896</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="133">
-        <v>10217.0</v>
-      </c>
-      <c r="B40" t="n" s="134">
-        <v>9805341.0</v>
-      </c>
-      <c r="C40" t="s" s="135">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s" s="136">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s" s="137">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s" s="138">
-        <v>28</v>
-      </c>
-      <c r="G40" t="n" s="139">
-        <v>-0.3651781225582364</v>
-      </c>
-      <c r="H40" t="n" s="140">
-        <v>0.4397719820919573</v>
+      <c r="D48" t="s" s="136">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s" s="137">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s" s="138">
+        <v>31</v>
+      </c>
+      <c r="G48" t="n" s="139">
+        <v>0.01579947135183563</v>
+      </c>
+      <c r="H48" t="n" s="140">
+        <v>-0.5751917581635956</v>
       </c>
     </row>
   </sheetData>
@@ -2541,7 +2701,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="142">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -2565,7 +2725,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="170">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -2576,15 +2736,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="172">
-        <v>-0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="166">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n" s="171">
-        <v>-0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="C7" t="n" s="172">
         <v>1.0</v>
@@ -2611,7 +2771,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="190">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -2622,15 +2782,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="192">
-        <v>-1.0606601717798216</v>
+        <v>1.4142135623730954</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="186">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n" s="191">
-        <v>-1.0606601717798216</v>
+        <v>1.4142135623730954</v>
       </c>
       <c r="C13" t="e" s="192">
         <v>#DIV/0!</v>
@@ -2657,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="210">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2668,15 +2828,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="212">
-        <v>0.3999999999999999</v>
+        <v>0.20703124999999997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="206">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n" s="211">
-        <v>0.3999999999999999</v>
+        <v>0.20703124999999997</v>
       </c>
       <c r="C19" t="n" s="212">
         <v>-0.0</v>
@@ -2714,19 +2874,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="226">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n" s="231">
-        <v>-0.9901277107996943</v>
+        <v>-0.31601737187318035</v>
       </c>
       <c r="C24" t="n" s="232">
-        <v>-0.6000000000000001</v>
+        <v>0.5000000000000001</v>
       </c>
       <c r="D24" t="n" s="233">
-        <v>0.852932564694718</v>
+        <v>0.8908085822654894</v>
       </c>
       <c r="E24" t="n" s="234">
-        <v>0.3999999999999999</v>
+        <v>0.20703124999999997</v>
       </c>
     </row>
     <row r="25">
@@ -2741,7 +2901,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="238">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
@@ -2749,184 +2909,320 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="252">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="253">
-        <v>0.14688963924618592</v>
+        <v>0.10936128804170442</v>
       </c>
       <c r="B29" t="n" s="254">
-        <v>-0.11419269077722653</v>
+        <v>1.763590558575434</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="253">
-        <v>-0.382909871149995</v>
+        <v>0.020923419414545792</v>
       </c>
       <c r="B30" t="n" s="254">
-        <v>0.13182888796024017</v>
+        <v>1.4363694743967594</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="253">
-        <v>-0.08233388109376125</v>
+        <v>-0.0384477872777069</v>
       </c>
       <c r="B31" t="n" s="254">
-        <v>-0.5946167604637125</v>
+        <v>0.16133576621629442</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="253">
-        <v>-0.3651781225582364</v>
+        <v>0.03479485469110267</v>
       </c>
       <c r="B32" t="n" s="254">
-        <v>0.4121784962678111</v>
+        <v>0.5679153445847771</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="n" s="253">
+        <v>-0.014255977234340904</v>
+      </c>
+      <c r="B33" t="n" s="254">
+        <v>2.329169452221114</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n" s="253">
+        <v>-0.06206997155468905</v>
+      </c>
+      <c r="B34" t="n" s="254">
+        <v>-0.40202239655355587</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="253">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="B35" t="n" s="254">
+        <v>0.3673639391876392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="253">
+        <v>0.01579947135183563</v>
+      </c>
+      <c r="B36" t="n" s="254">
+        <v>-1.417313480264575</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
+    <row r="38">
+      <c r="A38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s" s="258">
+    <row r="39">
+      <c r="A39" t="s" s="258">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="272">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="272">
+        <v>17</v>
+      </c>
+      <c r="D40" t="s" s="272">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s" s="272">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s" s="272">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s" s="272">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s" s="272">
         <v>33</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s" s="272">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s" s="272">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s" s="272">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s" s="272">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s" s="272">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s" s="272">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s" s="272">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s" s="272">
+    <row r="41">
+      <c r="A41" t="n" s="273">
+        <v>10175.0</v>
+      </c>
+      <c r="B41" t="n" s="274">
+        <v>1.03107E7</v>
+      </c>
+      <c r="C41" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s" s="276">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s" s="277">
         <v>30</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n" s="273">
-        <v>10185.0</v>
-      </c>
-      <c r="B37" t="n" s="274">
-        <v>1.027696E7</v>
-      </c>
-      <c r="C37" t="s" s="275">
+      <c r="F41" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G41" t="n" s="279">
+        <v>0.10936128804170442</v>
+      </c>
+      <c r="H41" t="n" s="280">
+        <v>1.763590558575434</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="273">
+        <v>10184.0</v>
+      </c>
+      <c r="B42" t="n" s="274">
+        <v>1.0276675E7</v>
+      </c>
+      <c r="C42" t="s" s="275">
         <v>21</v>
       </c>
-      <c r="D37" t="s" s="276">
-        <v>22</v>
-      </c>
-      <c r="E37" t="s" s="277">
+      <c r="D42" t="s" s="276">
+        <v>23</v>
+      </c>
+      <c r="E42" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F42" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G42" t="n" s="279">
+        <v>0.020923419414545792</v>
+      </c>
+      <c r="H42" t="n" s="280">
+        <v>1.4363694743967594</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="273">
+        <v>10197.0</v>
+      </c>
+      <c r="B43" t="n" s="274">
+        <v>1.0276661E7</v>
+      </c>
+      <c r="C43" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s" s="276">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F43" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G43" t="n" s="279">
+        <v>-0.0384477872777069</v>
+      </c>
+      <c r="H43" t="n" s="280">
+        <v>0.16133576621629442</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="273">
+        <v>10201.0</v>
+      </c>
+      <c r="B44" t="n" s="274">
+        <v>1.0276928E7</v>
+      </c>
+      <c r="C44" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s" s="276">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F44" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G44" t="n" s="279">
+        <v>0.03479485469110267</v>
+      </c>
+      <c r="H44" t="n" s="280">
+        <v>0.5679153445847771</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n" s="273">
+        <v>10204.0</v>
+      </c>
+      <c r="B45" t="n" s="274">
+        <v>1.0310471E7</v>
+      </c>
+      <c r="C45" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s" s="276">
         <v>26</v>
       </c>
-      <c r="F37" t="s" s="278">
+      <c r="E45" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G45" t="n" s="279">
+        <v>-0.014255977234340904</v>
+      </c>
+      <c r="H45" t="n" s="280">
+        <v>2.329169452221114</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="273">
+        <v>10206.0</v>
+      </c>
+      <c r="B46" t="n" s="274">
+        <v>1.0310721E7</v>
+      </c>
+      <c r="C46" t="s" s="275">
+        <v>21</v>
+      </c>
+      <c r="D46" t="s" s="276">
         <v>27</v>
       </c>
-      <c r="G37" t="n" s="279">
-        <v>0.14688963924618592</v>
-      </c>
-      <c r="H37" t="n" s="280">
-        <v>-0.11419269077722653</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n" s="273">
-        <v>10188.0</v>
-      </c>
-      <c r="B38" t="n" s="274">
-        <v>1.0276995E7</v>
-      </c>
-      <c r="C38" t="s" s="275">
+      <c r="E46" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F46" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G46" t="n" s="279">
+        <v>-0.06206997155468905</v>
+      </c>
+      <c r="H46" t="n" s="280">
+        <v>-0.40202239655355587</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="273">
+        <v>10213.0</v>
+      </c>
+      <c r="B47" t="n" s="274">
+        <v>1.027704E7</v>
+      </c>
+      <c r="C47" t="s" s="275">
         <v>21</v>
       </c>
-      <c r="D38" t="s" s="276">
-        <v>23</v>
-      </c>
-      <c r="E38" t="s" s="277">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s" s="278">
-        <v>27</v>
-      </c>
-      <c r="G38" t="n" s="279">
-        <v>-0.382909871149995</v>
-      </c>
-      <c r="H38" t="n" s="280">
-        <v>0.13182888796024017</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n" s="273">
-        <v>10208.0</v>
-      </c>
-      <c r="B39" t="n" s="274">
-        <v>1.0276932E7</v>
-      </c>
-      <c r="C39" t="s" s="275">
+      <c r="D47" t="s" s="276">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F47" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G47" t="n" s="279">
+        <v>-0.03911696250900538</v>
+      </c>
+      <c r="H47" t="n" s="280">
+        <v>0.3673639391876392</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="273">
+        <v>10231.0</v>
+      </c>
+      <c r="B48" t="n" s="274">
+        <v>1.0276911E7</v>
+      </c>
+      <c r="C48" t="s" s="275">
         <v>21</v>
       </c>
-      <c r="D39" t="s" s="276">
-        <v>24</v>
-      </c>
-      <c r="E39" t="s" s="277">
-        <v>26</v>
-      </c>
-      <c r="F39" t="s" s="278">
-        <v>28</v>
-      </c>
-      <c r="G39" t="n" s="279">
-        <v>-0.08233388109376125</v>
-      </c>
-      <c r="H39" t="n" s="280">
-        <v>-0.5946167604637125</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n" s="273">
-        <v>10217.0</v>
-      </c>
-      <c r="B40" t="n" s="274">
-        <v>9805341.0</v>
-      </c>
-      <c r="C40" t="s" s="275">
-        <v>21</v>
-      </c>
-      <c r="D40" t="s" s="276">
-        <v>25</v>
-      </c>
-      <c r="E40" t="s" s="277">
-        <v>26</v>
-      </c>
-      <c r="F40" t="s" s="278">
-        <v>28</v>
-      </c>
-      <c r="G40" t="n" s="279">
-        <v>-0.3651781225582364</v>
-      </c>
-      <c r="H40" t="n" s="280">
-        <v>0.4121784962678111</v>
+      <c r="D48" t="s" s="276">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s" s="277">
+        <v>30</v>
+      </c>
+      <c r="F48" t="s" s="278">
+        <v>31</v>
+      </c>
+      <c r="G48" t="n" s="279">
+        <v>0.01579947135183563</v>
+      </c>
+      <c r="H48" t="n" s="280">
+        <v>-1.417313480264575</v>
       </c>
     </row>
   </sheetData>
@@ -2955,7 +3251,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="282">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -2979,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="310">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -2990,15 +3286,15 @@
         <v>1.0</v>
       </c>
       <c r="C6" t="n" s="312">
-        <v>-0.6000000000000001</v>
+        <v>-0.5000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="306">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n" s="311">
-        <v>-0.6000000000000001</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="C7" t="n" s="312">
         <v>1.0</v>
@@ -3025,7 +3321,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s" s="330">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -3036,15 +3332,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C12" t="n" s="332">
-        <v>-1.0606601717798216</v>
+        <v>-0.8164965809277263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="326">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="n" s="331">
-        <v>-1.0606601717798216</v>
+        <v>-0.8164965809277263</v>
       </c>
       <c r="C13" t="e" s="332">
         <v>#DIV/0!</v>
@@ -3071,7 +3367,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="350">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -3082,15 +3378,15 @@
         <v>-0.0</v>
       </c>
       <c r="C18" t="n" s="352">
-        <v>0.3999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="346">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="n" s="351">
-        <v>0.3999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C19" t="n" s="352">
         <v>-0.0</v>
@@ -3128,19 +3424,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="366">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" t="n" s="371">
-        <v>-0.9901277107996943</v>
+        <v>-0.9868585703985144</v>
       </c>
       <c r="C24" t="n" s="372">
-        <v>-0.6000000000000001</v>
+        <v>-0.5000000000000001</v>
       </c>
       <c r="D24" t="n" s="373">
-        <v>0.852932564694718</v>
+        <v>0.8876337464301153</v>
       </c>
       <c r="E24" t="n" s="374">
-        <v>0.3999999999999999</v>
+        <v>0.4999999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3155,7 +3451,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="378">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28">
@@ -3163,39 +3459,39 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="392">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n" s="393">
-        <v>0.14688963924618592</v>
+        <v>0.14820426248899476</v>
       </c>
       <c r="B29" t="n" s="394">
-        <v>-0.3480552380430349</v>
+        <v>-0.040980812348663305</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n" s="393">
-        <v>-0.382909871149995</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="B30" t="n" s="394">
-        <v>0.33286643427263346</v>
+        <v>-0.040980812348663305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n" s="393">
-        <v>-0.08233388109376125</v>
+        <v>-0.0936603935862895</v>
       </c>
       <c r="B31" t="n" s="394">
-        <v>-0.6449742532967924</v>
+        <v>-0.40202239655355587</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n" s="393">
-        <v>-0.3651781225582364</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="B32" t="n" s="394">
-        <v>0.6632187972364607</v>
+        <v>0.7583414136629978</v>
       </c>
     </row>
     <row r="33">
@@ -3210,7 +3506,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="398">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -3236,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s" s="412">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3247,22 +3543,22 @@
         <v>1.027696E7</v>
       </c>
       <c r="C37" t="s" s="415">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s" s="416">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s" s="417">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s" s="418">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n" s="419">
-        <v>0.14688963924618592</v>
+        <v>0.14820426248899476</v>
       </c>
       <c r="H37" t="n" s="420">
-        <v>-0.3480552380430349</v>
+        <v>-0.040980812348663305</v>
       </c>
     </row>
     <row r="38">
@@ -3273,22 +3569,22 @@
         <v>1.0276995E7</v>
       </c>
       <c r="C38" t="s" s="415">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s" s="416">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s" s="417">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s" s="418">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="G38" t="n" s="419">
-        <v>-0.382909871149995</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="H38" t="n" s="420">
-        <v>0.33286643427263346</v>
+        <v>-0.040980812348663305</v>
       </c>
     </row>
     <row r="39">
@@ -3299,22 +3595,22 @@
         <v>1.0276932E7</v>
       </c>
       <c r="C39" t="s" s="415">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s" s="416">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s" s="417">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s" s="418">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G39" t="n" s="419">
-        <v>-0.08233388109376125</v>
+        <v>-0.0936603935862895</v>
       </c>
       <c r="H39" t="n" s="420">
-        <v>-0.6449742532967924</v>
+        <v>-0.40202239655355587</v>
       </c>
     </row>
     <row r="40">
@@ -3325,22 +3621,22 @@
         <v>9805341.0</v>
       </c>
       <c r="C40" t="s" s="415">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s" s="416">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s" s="417">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F40" t="s" s="418">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G40" t="n" s="419">
-        <v>-0.3651781225582364</v>
+        <v>-0.24471586653742866</v>
       </c>
       <c r="H40" t="n" s="420">
-        <v>0.6632187972364607</v>
+        <v>0.7583414136629978</v>
       </c>
     </row>
   </sheetData>
